--- a/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2965</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8205</v>
+        <v>8024</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004403294773152043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001393604538586337</v>
+        <v>0.00140100177080048</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01218400386491613</v>
+        <v>0.01191565668793079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>7270</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3750</v>
+        <v>3715</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12705</v>
+        <v>12667</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0102397723742973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005282156203337431</v>
+        <v>0.005232799865454321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01789508812629294</v>
+        <v>0.01784166397057592</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -783,19 +783,19 @@
         <v>10235</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5851</v>
+        <v>5875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16204</v>
+        <v>16410</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007398719035125645</v>
+        <v>0.007398719035125647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004229082425118822</v>
+        <v>0.004247104007011096</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01171328681944703</v>
+        <v>0.01186216653886101</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3913</v>
+        <v>4179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16260</v>
+        <v>17066</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01220361660803889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005811101705744622</v>
+        <v>0.006205136006774875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02414531772249514</v>
+        <v>0.02534264771935483</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>4128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8543</v>
+        <v>9333</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.005814229123308623</v>
+        <v>0.005814229123308622</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002465907006964118</v>
+        <v>0.002459538242627324</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01203223981541949</v>
+        <v>0.01314530134570764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -854,19 +854,19 @@
         <v>12346</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6708</v>
+        <v>6910</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20102</v>
+        <v>20476</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008924425356254422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004849000118005833</v>
+        <v>0.004995125306435038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01453055411634947</v>
+        <v>0.01480159721682233</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>617910</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>601963</v>
+        <v>602461</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>630493</v>
+        <v>629920</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9175916673884021</v>
+        <v>0.9175916673884023</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8939104786439506</v>
+        <v>0.8946500279330777</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9362769435554446</v>
+        <v>0.9354261523362176</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1101</v>
@@ -904,19 +904,19 @@
         <v>668462</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>658178</v>
+        <v>658941</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>676064</v>
+        <v>676751</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9415034096898682</v>
+        <v>0.9415034096898683</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9270195160411798</v>
+        <v>0.9280938847477369</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9522112162520388</v>
+        <v>0.9531782294519555</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1734</v>
@@ -925,19 +925,19 @@
         <v>1286372</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1267008</v>
+        <v>1269427</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1301524</v>
+        <v>1302339</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9298637633220551</v>
+        <v>0.9298637633220552</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9158664718468547</v>
+        <v>0.9176148441774753</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9408164159862653</v>
+        <v>0.9414056654698045</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>32345</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22807</v>
+        <v>22809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45909</v>
+        <v>44788</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0480322674795924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03386757717629055</v>
+        <v>0.03387182960159628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0681743907297719</v>
+        <v>0.06650990077662092</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -975,19 +975,19 @@
         <v>25458</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19823</v>
+        <v>19222</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33285</v>
+        <v>33323</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03585727322338714</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02791934456517498</v>
+        <v>0.0270730346139933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04688006351604922</v>
+        <v>0.04693356749742489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>100</v>
@@ -996,19 +996,19 @@
         <v>57804</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45864</v>
+        <v>45054</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71788</v>
+        <v>70924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04178376013035313</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03315294478542165</v>
+        <v>0.03256774065478395</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05189279421367239</v>
+        <v>0.05126776986546651</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>11966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7071</v>
+        <v>7117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19756</v>
+        <v>19675</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01776915375081436</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01050107626257205</v>
+        <v>0.01056922843219184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02933804894198393</v>
+        <v>0.0292175791518967</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1046,19 +1046,19 @@
         <v>4676</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2349</v>
+        <v>2368</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8304</v>
+        <v>8470</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006585315589138821</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003308956269934414</v>
+        <v>0.003335241882803197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01169545208180041</v>
+        <v>0.01193032080395696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1067,19 +1067,19 @@
         <v>16641</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11008</v>
+        <v>10523</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24303</v>
+        <v>24827</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01202933215621155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007957359046105327</v>
+        <v>0.007606906736412285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01756760835332336</v>
+        <v>0.01794627971532533</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>9988</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4898</v>
+        <v>4884</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19556</v>
+        <v>18393</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.009657604939723528</v>
+        <v>0.009657604939723527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004736182627807407</v>
+        <v>0.004722705312889727</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01890900004399694</v>
+        <v>0.01778412105113342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1192,19 +1192,19 @@
         <v>12204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7327</v>
+        <v>7404</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18937</v>
+        <v>19369</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0117101200750514</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007030761231893276</v>
+        <v>0.007104388319893245</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01817069864683869</v>
+        <v>0.0185859103120474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1213,19 +1213,19 @@
         <v>22192</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14073</v>
+        <v>14730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32676</v>
+        <v>32136</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01068778487631749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006777679858065324</v>
+        <v>0.007094048588448186</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01573738941302019</v>
+        <v>0.01547712106038944</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>10703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3801</v>
+        <v>4485</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24605</v>
+        <v>25507</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01034864328340545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003675201908090891</v>
+        <v>0.004336271944630861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02379115695099398</v>
+        <v>0.02466346212089328</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1263,19 +1263,19 @@
         <v>10951</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6158</v>
+        <v>5884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21471</v>
+        <v>22914</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0105081631038155</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005909400247744478</v>
+        <v>0.005645833248971456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02060255061733007</v>
+        <v>0.02198755123621913</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>21654</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11868</v>
+        <v>12623</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37340</v>
+        <v>35539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01042870803695927</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005715541697958058</v>
+        <v>0.00607920496218792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01798351835637681</v>
+        <v>0.01711598713403524</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>937645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>915203</v>
+        <v>914634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>957341</v>
+        <v>957595</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9066275328580967</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8849274624132418</v>
+        <v>0.8843777494984266</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9256723022238474</v>
+        <v>0.9259176114217882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1367</v>
@@ -1334,19 +1334,19 @@
         <v>969655</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>952335</v>
+        <v>953527</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>983124</v>
+        <v>983781</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9304393184939704</v>
+        <v>0.9304393184939703</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.913819473464593</v>
+        <v>0.9149628171823744</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9433634992007072</v>
+        <v>0.9439931711603974</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2217</v>
@@ -1355,19 +1355,19 @@
         <v>1907301</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1876155</v>
+        <v>1880391</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1929744</v>
+        <v>1930443</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9185789301434741</v>
+        <v>0.9185789301434739</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9035790003613008</v>
+        <v>0.9056187433912728</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9293879927195744</v>
+        <v>0.9297248251766483</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>60747</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44330</v>
+        <v>47388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78032</v>
+        <v>78101</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05873717070224829</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04286395840439144</v>
+        <v>0.04582002954258872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07545076458113456</v>
+        <v>0.07551749270539218</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -1405,19 +1405,19 @@
         <v>40434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30072</v>
+        <v>29725</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54957</v>
+        <v>54380</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03879878607445979</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02885618953236741</v>
+        <v>0.02852324038037218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0527345629085816</v>
+        <v>0.05218065953982842</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -1426,19 +1426,19 @@
         <v>101181</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83505</v>
+        <v>83056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122141</v>
+        <v>122201</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0487298760138415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0402171095139431</v>
+        <v>0.04000069703991378</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05882456537883097</v>
+        <v>0.0588533043579433</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>15130</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8644</v>
+        <v>9089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24365</v>
+        <v>25754</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01462904821652592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008358307105910958</v>
+        <v>0.008788805570471667</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02355923031058026</v>
+        <v>0.02490222890762387</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1476,19 +1476,19 @@
         <v>8904</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4834</v>
+        <v>4652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16591</v>
+        <v>16637</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008543612252702951</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004638399096590392</v>
+        <v>0.004463436764837979</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0159201143450012</v>
+        <v>0.01596428885242517</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -1497,19 +1497,19 @@
         <v>24033</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15596</v>
+        <v>15781</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34763</v>
+        <v>34842</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01157470092940771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007510994810192167</v>
+        <v>0.007600132096417321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01674212014115531</v>
+        <v>0.01678052460347552</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>9127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4317</v>
+        <v>4677</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17308</v>
+        <v>16863</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01172560271938306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005546398590464915</v>
+        <v>0.006008425230430464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02223555573126083</v>
+        <v>0.02166458722370966</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1622,19 +1622,19 @@
         <v>4306</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1823</v>
+        <v>1808</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8957</v>
+        <v>8949</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005495552151227454</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002326341920259189</v>
+        <v>0.002306914080674222</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01143186487990805</v>
+        <v>0.01142044897385267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1643,19 +1643,19 @@
         <v>13433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8008</v>
+        <v>7556</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21655</v>
+        <v>21431</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008600247822998829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005126816539330027</v>
+        <v>0.004837384404369127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01386417141250756</v>
+        <v>0.0137207203125296</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>10246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5407</v>
+        <v>5195</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18325</v>
+        <v>18521</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01316275341219237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006946551970720818</v>
+        <v>0.006673803573373252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02354265612048057</v>
+        <v>0.02379461253988279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -1693,19 +1693,19 @@
         <v>15136</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9567</v>
+        <v>10069</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22921</v>
+        <v>22585</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01931762610122022</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01221016302564919</v>
+        <v>0.01285036754967512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02925320308221663</v>
+        <v>0.02882402186151697</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -1714,19 +1714,19 @@
         <v>25382</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17439</v>
+        <v>17214</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34763</v>
+        <v>35147</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01625039472181493</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01116511434202878</v>
+        <v>0.01102093784226281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02225641424140866</v>
+        <v>0.02250217509204221</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>737717</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>721199</v>
+        <v>719856</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>749586</v>
+        <v>749187</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9477681964050984</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.92654625206554</v>
+        <v>0.9248212640585276</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9630168901461802</v>
+        <v>0.9625037360208611</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>955</v>
@@ -1764,19 +1764,19 @@
         <v>744203</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>733371</v>
+        <v>732289</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>754611</v>
+        <v>753117</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9497815011527323</v>
+        <v>0.9497815011527321</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9359568528174741</v>
+        <v>0.9345761307535178</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9630648324498938</v>
+        <v>0.9611579820693271</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1577</v>
@@ -1785,19 +1785,19 @@
         <v>1481920</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1462612</v>
+        <v>1461769</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1498567</v>
+        <v>1497070</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.948778186899091</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9364166007061439</v>
+        <v>0.9358768769454895</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9594361443779676</v>
+        <v>0.9584776960174016</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>6833</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3161</v>
+        <v>2852</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13873</v>
+        <v>14074</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008779060703748048</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004060470578602151</v>
+        <v>0.003664456388455662</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0178226504584841</v>
+        <v>0.01808082080161949</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1835,19 +1835,19 @@
         <v>12399</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7209</v>
+        <v>7819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19248</v>
+        <v>19957</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01582471374898251</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009200491645026737</v>
+        <v>0.009979215294831936</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02456507351527266</v>
+        <v>0.02546928013582605</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1856,19 +1856,19 @@
         <v>19233</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12436</v>
+        <v>12515</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28607</v>
+        <v>27973</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01231356913225138</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007961671874214758</v>
+        <v>0.008012490092247613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01831547226006242</v>
+        <v>0.01790959857000832</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>14450</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7091</v>
+        <v>7735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28789</v>
+        <v>28814</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01856438675957826</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009109785978982923</v>
+        <v>0.009937568131355727</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03698585537941806</v>
+        <v>0.03701793602382494</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1906,19 +1906,19 @@
         <v>7507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3707</v>
+        <v>3753</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14521</v>
+        <v>14107</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009580606845837593</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004731628345151427</v>
+        <v>0.004789961877619766</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01853165189445445</v>
+        <v>0.01800366710690086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -1927,19 +1927,19 @@
         <v>21957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13150</v>
+        <v>13071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36522</v>
+        <v>35892</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01405760142384382</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008419323733218067</v>
+        <v>0.008368241963489264</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02338245251398038</v>
+        <v>0.02297958552064546</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>7413</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3649</v>
+        <v>3415</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14776</v>
+        <v>13826</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007690112862183362</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003785840569310405</v>
+        <v>0.003543009063691962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01532898377340004</v>
+        <v>0.01434401358070192</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2052,19 +2052,19 @@
         <v>13325</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7827</v>
+        <v>7929</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20514</v>
+        <v>21180</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01216542781764468</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007145823751211158</v>
+        <v>0.007238884945809795</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01872896881394109</v>
+        <v>0.01933727275946882</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2073,19 +2073,19 @@
         <v>20737</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14373</v>
+        <v>13751</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31382</v>
+        <v>30858</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0100705288675477</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006980063276631033</v>
+        <v>0.006677706318091685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01523994162762899</v>
+        <v>0.01498538286257372</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>4850</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1512</v>
+        <v>1748</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10999</v>
+        <v>10824</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.005031614000800004</v>
+        <v>0.005031614000800003</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001568422121032897</v>
+        <v>0.00181387093946492</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01141090174130287</v>
+        <v>0.01122931734865072</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -2123,19 +2123,19 @@
         <v>11266</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6734</v>
+        <v>6195</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18295</v>
+        <v>18953</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01028619742546632</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006148058003534984</v>
+        <v>0.005656245706359202</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01670364143270627</v>
+        <v>0.01730450139023993</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2144,19 +2144,19 @@
         <v>16116</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10427</v>
+        <v>10566</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23902</v>
+        <v>24833</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007826522205044713</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005063554655998393</v>
+        <v>0.005131343643487211</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01160741990919649</v>
+        <v>0.01205958873631216</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>914475</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>898236</v>
+        <v>897961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>928292</v>
+        <v>927052</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9487077643287468</v>
+        <v>0.9487077643287469</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9318609846175975</v>
+        <v>0.9315764463109997</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9630423285046937</v>
+        <v>0.9617560803554904</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1432</v>
@@ -2194,19 +2194,19 @@
         <v>1030162</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1013276</v>
+        <v>1014805</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1042925</v>
+        <v>1042576</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9405384888073085</v>
+        <v>0.9405384888073084</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.925121537260096</v>
+        <v>0.9265167519504467</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9521907747374333</v>
+        <v>0.9518722408226477</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2358</v>
@@ -2215,19 +2215,19 @@
         <v>1944637</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1922079</v>
+        <v>1924110</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1962424</v>
+        <v>1964066</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9443625340160214</v>
+        <v>0.9443625340160213</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9334078648469345</v>
+        <v>0.934394024708819</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9530000888668597</v>
+        <v>0.9537978454121577</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>21694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12886</v>
+        <v>13376</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34580</v>
+        <v>33838</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02250623933939957</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01336830875205836</v>
+        <v>0.01387715312066386</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03587404592542652</v>
+        <v>0.03510522455087812</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2265,19 +2265,19 @@
         <v>25065</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17484</v>
+        <v>17649</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34475</v>
+        <v>34549</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02288415368989965</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.015962554464918</v>
+        <v>0.01611328266610573</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03147571767559611</v>
+        <v>0.03154294742139762</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -2286,19 +2286,19 @@
         <v>46759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34687</v>
+        <v>34696</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61921</v>
+        <v>63651</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02270725164301173</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0168449128622527</v>
+        <v>0.01684936268281433</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03007016857898862</v>
+        <v>0.03091049408769852</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>15485</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9026</v>
+        <v>8628</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25816</v>
+        <v>25721</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01606426946887022</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009363499012089627</v>
+        <v>0.00895124200386333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02678199598094565</v>
+        <v>0.02668373532968116</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2336,19 +2336,19 @@
         <v>15472</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9395</v>
+        <v>8958</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26551</v>
+        <v>26297</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01412573225968098</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008577542896381685</v>
+        <v>0.00817865086856711</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02424070543621006</v>
+        <v>0.02400887342383894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -2357,19 +2357,19 @@
         <v>30956</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20979</v>
+        <v>22013</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45588</v>
+        <v>44487</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01503316326837427</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01018771783718208</v>
+        <v>0.01068992208472449</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02213851874821773</v>
+        <v>0.02160389478967308</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>29493</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20232</v>
+        <v>19879</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41527</v>
+        <v>42008</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008548850469094899</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005864587865973327</v>
+        <v>0.005762229693048118</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01203718375399192</v>
+        <v>0.01217668747856731</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -2482,19 +2482,19 @@
         <v>37105</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>28579</v>
+        <v>28860</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49822</v>
+        <v>48092</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0102188758268902</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007870954282801438</v>
+        <v>0.007948161633660973</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01372141274761639</v>
+        <v>0.01324497883315342</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>85</v>
@@ -2503,19 +2503,19 @@
         <v>66597</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>54225</v>
+        <v>52972</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>82795</v>
+        <v>82543</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.009405216846837532</v>
+        <v>0.009405216846837533</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007657927472425706</v>
+        <v>0.007480971482906766</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01169274798398034</v>
+        <v>0.01165709145598747</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>34016</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22752</v>
+        <v>22446</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>50623</v>
+        <v>48317</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009860051295184621</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006595002363573363</v>
+        <v>0.006506146685158999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01467366057650719</v>
+        <v>0.01400526283840601</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -2553,19 +2553,19 @@
         <v>41482</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30607</v>
+        <v>31666</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>56320</v>
+        <v>55263</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01142441446885513</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008429454842344202</v>
+        <v>0.008721022957337203</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01551106624401688</v>
+        <v>0.01521976677638625</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -2574,19 +2574,19 @@
         <v>75498</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>60023</v>
+        <v>59141</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>98094</v>
+        <v>94285</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01066223553643396</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008476739493397946</v>
+        <v>0.008352167879494341</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01385338581546664</v>
+        <v>0.01331548555303418</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>3207747</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3172336</v>
+        <v>3172328</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3237941</v>
+        <v>3237415</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9298072676607525</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9195430164058613</v>
+        <v>0.9195405734189852</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9385595057488703</v>
+        <v>0.9384069748551785</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4855</v>
@@ -2624,19 +2624,19 @@
         <v>3412483</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3384998</v>
+        <v>3385242</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3435942</v>
+        <v>3435896</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9398231577877979</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9322536400520396</v>
+        <v>0.9323207156484494</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9462840865286251</v>
+        <v>0.9462714068569125</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7886</v>
@@ -2645,19 +2645,19 @@
         <v>6620229</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6579742</v>
+        <v>6579193</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6659764</v>
+        <v>6659592</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9349432804212349</v>
+        <v>0.934943280421235</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9292254784024195</v>
+        <v>0.9291479929563473</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9405266160086229</v>
+        <v>0.9405023978779476</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>121619</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>101344</v>
+        <v>101609</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>143597</v>
+        <v>146344</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03525294627823381</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02937589202152387</v>
+        <v>0.02945283378091291</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04162355230379204</v>
+        <v>0.04241983300580258</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>170</v>
@@ -2695,19 +2695,19 @@
         <v>103357</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>88168</v>
+        <v>87988</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>123514</v>
+        <v>122812</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0284652292469071</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02428207072512324</v>
+        <v>0.0242325650294366</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0340166519410132</v>
+        <v>0.03382322870484069</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>304</v>
@@ -2716,19 +2716,19 @@
         <v>224976</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>197877</v>
+        <v>198665</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>254474</v>
+        <v>257555</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03177229694549972</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02794529301414667</v>
+        <v>0.02805650904818903</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03593821137012567</v>
+        <v>0.03637322959244856</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>57030</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42638</v>
+        <v>42628</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>75328</v>
+        <v>74773</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01653088429673427</v>
+        <v>0.01653088429673428</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0123592310246084</v>
+        <v>0.01235636434697254</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02183488930739424</v>
+        <v>0.02167402858626056</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -2766,19 +2766,19 @@
         <v>36558</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26404</v>
+        <v>26262</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49030</v>
+        <v>49224</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01006832266954966</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00727178188733311</v>
+        <v>0.007232653501740871</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01350318425085897</v>
+        <v>0.01355651847527184</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>110</v>
@@ -2787,19 +2787,19 @@
         <v>93588</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75349</v>
+        <v>75914</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115510</v>
+        <v>114597</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0132169702499938</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0106412196816778</v>
+        <v>0.01072092749641024</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01631293456738404</v>
+        <v>0.01618392636918101</v>
       </c>
     </row>
     <row r="33">
